--- a/python/output/DF_Partial_Result.xlsx
+++ b/python/output/DF_Partial_Result.xlsx
@@ -390,18 +390,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'anOptimizer': 'adam', 'batch_size': 10, 'epochs': 8, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+          <t>{'anOptimizer': 'adam', 'batch_size': 10, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9289255539576212</v>
+        <v>0.923655370871226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0112857355924842</v>
+        <v>0.01501205741479679</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -409,37 +409,37 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'anOptimizer': 'adam', 'batch_size': 10, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+          <t>{'anOptimizer': 'adam', 'batch_size': 10, 'epochs': 8, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9289255539576212</v>
+        <v>0.923613707224528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0112857355924842</v>
+        <v>0.02000352744147469</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'anOptimizer': 'adam', 'batch_size': 50, 'epochs': 8, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+          <t>{'anOptimizer': 'adam', 'batch_size': 50, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7659042676289877</v>
+        <v>0.7840478221575419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08011041731293501</v>
+        <v>0.07511020857037724</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -447,18 +447,18 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'anOptimizer': 'adam', 'batch_size': 50, 'epochs': 10, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
+          <t>{'anOptimizer': 'adam', 'batch_size': 50, 'epochs': 8, 'hidUnit': 256, 'outActivation': 'softmax'}</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.745052695274353</v>
+        <v>0.7159105141957601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08511481545463608</v>
+        <v>0.06637576653389871</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
